--- a/biology/Botanique/Fucus_gardneri/Fucus_gardneri.xlsx
+++ b/biology/Botanique/Fucus_gardneri/Fucus_gardneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fucus distichus est une espèce d'algues brunes marines de la famille des Fucaceae. Elle vit dans l'océan Pacifique nord et nord-ouest et en mer de Béring.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (7 juil. 2012)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (7 juil. 2012) :
 Synonyme homotypique :
 Virsodes distichum (Linnaeus) Kuntze 1891
 Synonymes hétérotypiques :
@@ -573,11 +587,13 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (7 juil. 2012)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (7 juil. 2012) :
 sous-espèce Fucus distichus subsp. evanescens (selon AlgaeBase, cette sous-espèce est synonyme de Fucus evanescens)
-Selon World Register of Marine Species                               (8 juillet 2018)[2] :
+Selon World Register of Marine Species                               (8 juillet 2018) :
 variété Fucus distichus var. angustior Kützing
 variété Fucus distichus var. latior Kützing
 variété Fucus distichus var. miclonenesis (De la Pylaie) Kleen
